--- a/CubeSerializer.xlsx
+++ b/CubeSerializer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepos\AISandbox-TwistyRulesSolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F8AA57-B22D-4F05-BC85-19ED18EBD2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95524167-9EE5-4B1A-8F6F-A0A0AF643F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="7140" windowWidth="19440" windowHeight="14880" xr2:uid="{7FB89D94-8839-4B32-B5FC-BBEF39AAA78C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="4">
   <si>
     <t>.</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>RROWYYBBBYBWGOOROYRYOBBYOGBWRGORGORGWBGYGRWGYGOYWWWBWR</t>
   </si>
 </sst>
 </file>
@@ -198,16 +201,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -261,6 +254,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5122F7EE-9CE3-429B-9732-160E13168C99}">
-  <dimension ref="B1:W13"/>
+  <dimension ref="B1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -628,7 +631,7 @@
       <c r="M2" s="1"/>
       <c r="P2" t="str">
         <f>_xlfn.CONCAT(E2:G2)</f>
-        <v>.y.</v>
+        <v>...</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
@@ -734,7 +737,7 @@
       </c>
       <c r="U5" t="str">
         <f>_xlfn.CONCAT(P2:P4)</f>
-        <v>.y.......</v>
+        <v>.........</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
@@ -792,7 +795,7 @@
       </c>
       <c r="T6" t="str">
         <f>_xlfn.CONCAT(O5:O7)</f>
-        <v>.........</v>
+        <v>.......y.</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" ref="U6:W6" si="4">_xlfn.CONCAT(P5:P7)</f>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>0</v>
@@ -846,7 +849,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
-        <v>...</v>
+        <v>.y.</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +865,7 @@
       </c>
       <c r="U7" t="str">
         <f>_xlfn.CONCAT(P8:P10)</f>
-        <v>.......x.</v>
+        <v>...x.....</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
@@ -894,7 +897,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -910,7 +913,7 @@
       <c r="M9" s="6"/>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>...</v>
+        <v>x..</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>0</v>
@@ -934,37 +937,484 @@
       <c r="M10" s="6"/>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>.x.</v>
+        <v>...</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f>_xlfn.CONCAT(U5,T6,U6,V6,W6,U7)</f>
-        <v>.y..................................................x.</v>
+        <v>................y...............................x.....</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f>MID($B$16,T17,1)</f>
+        <v>R</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:G18" si="5">MID($B$16,U17,1)</f>
+        <v>R</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <f>T18+1</f>
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <f>U18+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E20" si="6">MID($B$16,T18,1)</f>
+        <v>W</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:F21" si="7">MID($B$16,U18,1)</f>
+        <v>Y</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G21" si="8">MID($B$16,V18,1)</f>
+        <v>Y</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <f>T19+1</f>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>U19+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E20" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <f>Q20+1</f>
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <f>R20+1</f>
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <f>T20+1</f>
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <f>U20+1</f>
+        <v>21</v>
+      </c>
+      <c r="W20">
+        <v>28</v>
+      </c>
+      <c r="X20">
+        <f>W20+1</f>
+        <v>29</v>
+      </c>
+      <c r="Y20">
+        <f>X20+1</f>
+        <v>30</v>
+      </c>
+      <c r="Z20">
+        <v>37</v>
+      </c>
+      <c r="AA20">
+        <f>Z20+1</f>
+        <v>38</v>
+      </c>
+      <c r="AB20">
+        <f>AA20+1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:D23" si="9">MID($B$16,Q20,1)</f>
+        <v>Y</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="9"/>
+        <v>W</v>
+      </c>
+      <c r="E21" t="str">
+        <f>MID($B$16,T20,1)</f>
+        <v>R</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H23" si="10">MID($B$16,W20,1)</f>
+        <v>W</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" ref="I21:I23" si="11">MID($B$16,X20,1)</f>
+        <v>R</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:J23" si="12">MID($B$16,Y20,1)</f>
+        <v>G</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:K23" si="13">MID($B$16,Z20,1)</f>
+        <v>W</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L23" si="14">MID($B$16,AA20,1)</f>
+        <v>B</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ref="M21:M23" si="15">MID($B$16,AB20,1)</f>
+        <v>G</v>
+      </c>
+      <c r="Q21">
+        <f>S20+1</f>
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:S21" si="16">Q21+1</f>
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="T21">
+        <f>V20+1</f>
+        <v>22</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:V21" si="17">T21+1</f>
+        <v>23</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="W21">
+        <f>Y20+1</f>
+        <v>31</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ref="X21:Y21" si="18">W21+1</f>
+        <v>32</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="18"/>
+        <v>33</v>
+      </c>
+      <c r="Z21">
+        <f>AB20+1</f>
+        <v>40</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21:AB21" si="19">Z21+1</f>
+        <v>41</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="19"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B22" t="str">
+        <f t="shared" si="9"/>
+        <v>G</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="9"/>
+        <v>O</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="9"/>
+        <v>O</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E23" si="20">MID($B$16,T21,1)</f>
+        <v>B</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:F26" si="21">MID($B$16,U21,1)</f>
+        <v>B</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G26" si="22">MID($B$16,V21,1)</f>
+        <v>Y</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="10"/>
+        <v>O</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="15"/>
+        <v>R</v>
+      </c>
+      <c r="Q22">
+        <f>S21+1</f>
+        <v>16</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:S22" si="23">Q22+1</f>
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <f>V21+1</f>
+        <v>25</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:V22" si="24">T22+1</f>
+        <v>26</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="W22">
+        <f>Y21+1</f>
+        <v>34</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="25">W22+1</f>
+        <v>35</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="Z22">
+        <f>AB21+1</f>
+        <v>43</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ref="AA22:AB22" si="26">Z22+1</f>
+        <v>44</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="26"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B23" t="str">
+        <f t="shared" si="9"/>
+        <v>R</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="9"/>
+        <v>O</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="20"/>
+        <v>O</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="21"/>
+        <v>G</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="22"/>
+        <v>B</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="10"/>
+        <v>O</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="13"/>
+        <v>W</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="15"/>
+        <v>Y</v>
+      </c>
+      <c r="T23">
+        <v>46</v>
+      </c>
+      <c r="U23">
+        <f>T23+1</f>
+        <v>47</v>
+      </c>
+      <c r="V23">
+        <f>U23+1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E24" t="str">
+        <f>MID($B$16,T23,1)</f>
+        <v>G</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="21"/>
+        <v>O</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="22"/>
+        <v>Y</v>
+      </c>
+      <c r="T24">
+        <f>V23+1</f>
+        <v>49</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:V24" si="27">T24+1</f>
+        <v>50</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="27"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E26" si="28">MID($B$16,T24,1)</f>
+        <v>W</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="21"/>
+        <v>W</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="22"/>
+        <v>W</v>
+      </c>
+      <c r="T25">
+        <f>V24+1</f>
+        <v>52</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:V25" si="29">T25+1</f>
+        <v>53</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E26" t="str">
+        <f t="shared" si="28"/>
+        <v>B</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="21"/>
+        <v>W</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"."</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"G"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
